--- a/docs/StructureDefinition-ExtString.xlsx
+++ b/docs/StructureDefinition-ExtString.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T08:40:42-03:00</t>
+    <t>2023-01-17T01:53:31-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ExtString.xlsx
+++ b/docs/StructureDefinition-ExtString.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T01:53:31-03:00</t>
+    <t>2023-01-17T23:45:39-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ExtString.xlsx
+++ b/docs/StructureDefinition-ExtString.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T23:45:39-03:00</t>
+    <t>2023-01-18T13:51:24-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ExtString.xlsx
+++ b/docs/StructureDefinition-ExtString.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T13:51:24-03:00</t>
+    <t>2023-01-18T14:20:48-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ExtString.xlsx
+++ b/docs/StructureDefinition-ExtString.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T14:20:48-03:00</t>
+    <t>2023-01-19T11:18:06-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ExtString.xlsx
+++ b/docs/StructureDefinition-ExtString.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-19T11:18:06-03:00</t>
+    <t>2023-01-20T14:40:00-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
